--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fzd10</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2740863333333334</v>
+        <v>0.6558959999999999</v>
       </c>
       <c r="H2">
-        <v>0.8222590000000001</v>
+        <v>1.967688</v>
       </c>
       <c r="I2">
-        <v>0.05829365131129328</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="J2">
-        <v>0.05829365131129328</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,22 +561,22 @@
         <v>0.016337</v>
       </c>
       <c r="O2">
-        <v>0.1561347172047327</v>
+        <v>0.1242225162340131</v>
       </c>
       <c r="P2">
-        <v>0.1561347172047327</v>
+        <v>0.1242225162340131</v>
       </c>
       <c r="Q2">
-        <v>0.001492582809222223</v>
+        <v>0.003571790984</v>
       </c>
       <c r="R2">
-        <v>0.013433245283</v>
+        <v>0.032146118856</v>
       </c>
       <c r="S2">
-        <v>0.009101662762320073</v>
+        <v>0.01619281585884638</v>
       </c>
       <c r="T2">
-        <v>0.009101662762320072</v>
+        <v>0.01619281585884638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.6558959999999999</v>
+      </c>
+      <c r="H3">
+        <v>1.967688</v>
+      </c>
+      <c r="I3">
+        <v>0.1303533075142512</v>
+      </c>
+      <c r="J3">
+        <v>0.1303533075142512</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.2740863333333334</v>
-      </c>
-      <c r="H3">
-        <v>0.8222590000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.05829365131129328</v>
-      </c>
-      <c r="J3">
-        <v>0.05829365131129328</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0.02943233333333333</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N3">
-        <v>0.08829699999999999</v>
+        <v>0.092858</v>
       </c>
       <c r="O3">
-        <v>0.8438652827952673</v>
+        <v>0.706069315814286</v>
       </c>
       <c r="P3">
-        <v>0.8438652827952673</v>
+        <v>0.7060693158142859</v>
       </c>
       <c r="Q3">
-        <v>0.008067000324777777</v>
+        <v>0.020301730256</v>
       </c>
       <c r="R3">
-        <v>0.072603002923</v>
+        <v>0.182715572304</v>
       </c>
       <c r="S3">
-        <v>0.04919198854897321</v>
+        <v>0.09203847065071658</v>
       </c>
       <c r="T3">
-        <v>0.04919198854897321</v>
+        <v>0.09203847065071656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.335609</v>
+        <v>0.6558959999999999</v>
       </c>
       <c r="H4">
-        <v>10.006827</v>
+        <v>1.967688</v>
       </c>
       <c r="I4">
-        <v>0.7094291261882629</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="J4">
-        <v>0.7094291261882629</v>
+        <v>0.1303533075142512</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.005445666666666667</v>
+        <v>0.007439666666666666</v>
       </c>
       <c r="N4">
-        <v>0.016337</v>
+        <v>0.022319</v>
       </c>
       <c r="O4">
-        <v>0.1561347172047327</v>
+        <v>0.169708167951701</v>
       </c>
       <c r="P4">
-        <v>0.1561347172047327</v>
+        <v>0.169708167951701</v>
       </c>
       <c r="Q4">
-        <v>0.01816461474433333</v>
+        <v>0.004879647607999999</v>
       </c>
       <c r="R4">
-        <v>0.163481532699</v>
+        <v>0.04391682847199999</v>
       </c>
       <c r="S4">
-        <v>0.1107665159942051</v>
+        <v>0.02212202100468827</v>
       </c>
       <c r="T4">
-        <v>0.1107665159942051</v>
+        <v>0.02212202100468827</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +729,45 @@
         <v>10.006827</v>
       </c>
       <c r="I5">
-        <v>0.7094291261882629</v>
+        <v>0.6629216609406124</v>
       </c>
       <c r="J5">
-        <v>0.7094291261882629</v>
+        <v>0.6629216609406123</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02943233333333333</v>
+        <v>0.005445666666666667</v>
       </c>
       <c r="N5">
-        <v>0.08829699999999999</v>
+        <v>0.016337</v>
       </c>
       <c r="O5">
-        <v>0.8438652827952673</v>
+        <v>0.1242225162340131</v>
       </c>
       <c r="P5">
-        <v>0.8438652827952673</v>
+        <v>0.1242225162340131</v>
       </c>
       <c r="Q5">
-        <v>0.09817475595766664</v>
+        <v>0.01816461474433333</v>
       </c>
       <c r="R5">
-        <v>0.8835728036189998</v>
+        <v>0.163481532699</v>
       </c>
       <c r="S5">
-        <v>0.5986626101940579</v>
+        <v>0.08234979678807418</v>
       </c>
       <c r="T5">
-        <v>0.5986626101940579</v>
+        <v>0.08234979678807415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.092126</v>
+        <v>3.335609</v>
       </c>
       <c r="H6">
-        <v>3.276378</v>
+        <v>10.006827</v>
       </c>
       <c r="I6">
-        <v>0.2322772225004438</v>
+        <v>0.6629216609406124</v>
       </c>
       <c r="J6">
-        <v>0.2322772225004438</v>
+        <v>0.6629216609406123</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.005445666666666667</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N6">
-        <v>0.016337</v>
+        <v>0.092858</v>
       </c>
       <c r="O6">
-        <v>0.1561347172047327</v>
+        <v>0.706069315814286</v>
       </c>
       <c r="P6">
-        <v>0.1561347172047327</v>
+        <v>0.7060693158142859</v>
       </c>
       <c r="Q6">
-        <v>0.005947354154</v>
+        <v>0.1032459935073333</v>
       </c>
       <c r="R6">
-        <v>0.053526187386</v>
+        <v>0.9292139415659999</v>
       </c>
       <c r="S6">
-        <v>0.03626653844820758</v>
+        <v>0.4680686435788083</v>
       </c>
       <c r="T6">
-        <v>0.03626653844820757</v>
+        <v>0.4680686435788082</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,46 +847,232 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.092126</v>
+        <v>3.335609</v>
       </c>
       <c r="H7">
-        <v>3.276378</v>
+        <v>10.006827</v>
       </c>
       <c r="I7">
-        <v>0.2322772225004438</v>
+        <v>0.6629216609406124</v>
       </c>
       <c r="J7">
-        <v>0.2322772225004438</v>
+        <v>0.6629216609406123</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.007439666666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.022319</v>
+      </c>
+      <c r="O7">
+        <v>0.169708167951701</v>
+      </c>
+      <c r="P7">
+        <v>0.169708167951701</v>
+      </c>
+      <c r="Q7">
+        <v>0.02481581909033333</v>
+      </c>
+      <c r="R7">
+        <v>0.223342371813</v>
+      </c>
+      <c r="S7">
+        <v>0.11250322057373</v>
+      </c>
+      <c r="T7">
+        <v>0.11250322057373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.02943233333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.08829699999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.8438652827952673</v>
-      </c>
-      <c r="P7">
-        <v>0.8438652827952673</v>
-      </c>
-      <c r="Q7">
-        <v>0.03214381647399999</v>
-      </c>
-      <c r="R7">
-        <v>0.2892943482659999</v>
-      </c>
-      <c r="S7">
-        <v>0.1960106840522362</v>
-      </c>
-      <c r="T7">
-        <v>0.1960106840522362</v>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.040174</v>
+      </c>
+      <c r="H8">
+        <v>3.120522</v>
+      </c>
+      <c r="I8">
+        <v>0.2067250315451364</v>
+      </c>
+      <c r="J8">
+        <v>0.2067250315451363</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.005445666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.016337</v>
+      </c>
+      <c r="O8">
+        <v>0.1242225162340131</v>
+      </c>
+      <c r="P8">
+        <v>0.1242225162340131</v>
+      </c>
+      <c r="Q8">
+        <v>0.005664440879333335</v>
+      </c>
+      <c r="R8">
+        <v>0.05097996791400001</v>
+      </c>
+      <c r="S8">
+        <v>0.02567990358709258</v>
+      </c>
+      <c r="T8">
+        <v>0.02567990358709257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.040174</v>
+      </c>
+      <c r="H9">
+        <v>3.120522</v>
+      </c>
+      <c r="I9">
+        <v>0.2067250315451364</v>
+      </c>
+      <c r="J9">
+        <v>0.2067250315451363</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.03095266666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.092858</v>
+      </c>
+      <c r="O9">
+        <v>0.706069315814286</v>
+      </c>
+      <c r="P9">
+        <v>0.7060693158142859</v>
+      </c>
+      <c r="Q9">
+        <v>0.03219615909733334</v>
+      </c>
+      <c r="R9">
+        <v>0.289765431876</v>
+      </c>
+      <c r="S9">
+        <v>0.1459622015847611</v>
+      </c>
+      <c r="T9">
+        <v>0.1459622015847611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.040174</v>
+      </c>
+      <c r="H10">
+        <v>3.120522</v>
+      </c>
+      <c r="I10">
+        <v>0.2067250315451364</v>
+      </c>
+      <c r="J10">
+        <v>0.2067250315451363</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007439666666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.022319</v>
+      </c>
+      <c r="O10">
+        <v>0.169708167951701</v>
+      </c>
+      <c r="P10">
+        <v>0.169708167951701</v>
+      </c>
+      <c r="Q10">
+        <v>0.007738547835333334</v>
+      </c>
+      <c r="R10">
+        <v>0.069646930518</v>
+      </c>
+      <c r="S10">
+        <v>0.03508292637328268</v>
+      </c>
+      <c r="T10">
+        <v>0.03508292637328268</v>
       </c>
     </row>
   </sheetData>
